--- a/Code/Results/Cases/Case_2_248/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_248/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.837340203675</v>
+        <v>8.063151185903664</v>
       </c>
       <c r="C2">
-        <v>6.554716165704061</v>
+        <v>4.584180610710706</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>14.70816473441948</v>
+        <v>12.74416604407081</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>16.86991607391245</v>
       </c>
       <c r="G2">
-        <v>2.088853259532219</v>
+        <v>3.630603431827059</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>12.47967318531255</v>
+        <v>20.10074251947608</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>10.70438562680834</v>
+        <v>7.974778230901852</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.29533221307593</v>
+        <v>13.41094510034195</v>
       </c>
       <c r="N2">
-        <v>11.96158405792769</v>
+        <v>18.31194102333822</v>
       </c>
       <c r="O2">
-        <v>13.50199847476211</v>
+        <v>21.15023834395223</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.10197855973026</v>
+        <v>7.786216191088958</v>
       </c>
       <c r="C3">
-        <v>6.205259072981494</v>
+        <v>4.421841791944982</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>13.82606247959207</v>
+        <v>12.52275609309331</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>15.89584955866815</v>
       </c>
       <c r="G3">
-        <v>2.092949701834142</v>
+        <v>3.632132058032816</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>12.66092716296665</v>
+        <v>20.18974032786772</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.12254547171444</v>
+        <v>7.797541338779874</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.37815652400891</v>
+        <v>13.24434619055926</v>
       </c>
       <c r="N3">
-        <v>12.14978052046827</v>
+        <v>18.36936698444557</v>
       </c>
       <c r="O3">
-        <v>13.58156547694132</v>
+        <v>21.23208012869285</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.62482718083107</v>
+        <v>7.612192862166771</v>
       </c>
       <c r="C4">
-        <v>5.980486095918871</v>
+        <v>4.318149319971216</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>13.26730762121433</v>
+        <v>12.3892508566963</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>15.26997757108489</v>
       </c>
       <c r="G4">
-        <v>2.095542269435597</v>
+        <v>3.633120219987842</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>12.78112885976792</v>
+        <v>20.24804265683637</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.747385120776029</v>
+        <v>7.687811476672208</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>12.78471140874292</v>
+        <v>13.14417694576039</v>
       </c>
       <c r="N4">
-        <v>12.26807601908415</v>
+        <v>18.40631605653857</v>
       </c>
       <c r="O4">
-        <v>13.64245070658413</v>
+        <v>21.28670683551182</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.42394744948216</v>
+        <v>7.540386589786907</v>
       </c>
       <c r="C5">
-        <v>5.886361900199397</v>
+        <v>4.274920983179022</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13.03551324680304</v>
+        <v>12.33554092165054</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>15.008197319934</v>
       </c>
       <c r="G5">
-        <v>2.096618636384745</v>
+        <v>3.633535409427155</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>12.8322663508601</v>
+        <v>20.27272088643588</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.590062014870172</v>
+        <v>7.642930967971266</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>12.535239595407</v>
+        <v>13.10393904122187</v>
       </c>
       <c r="N5">
-        <v>12.31698999527704</v>
+        <v>18.4217991185508</v>
       </c>
       <c r="O5">
-        <v>13.67015106390953</v>
+        <v>21.31006607332367</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.39020325512414</v>
+        <v>7.528412891145766</v>
       </c>
       <c r="C6">
-        <v>5.870581346207493</v>
+        <v>4.267685360765378</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12.99678376479221</v>
+        <v>12.32666671298655</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>14.96433081551589</v>
       </c>
       <c r="G6">
-        <v>2.096798578856138</v>
+        <v>3.633605107740895</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>12.84088541453385</v>
+        <v>20.27687422432457</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.563672444850711</v>
+        <v>7.635470532342256</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>12.49335329369231</v>
+        <v>13.09729409201086</v>
       </c>
       <c r="N6">
-        <v>12.32515537692271</v>
+        <v>18.42439583560536</v>
       </c>
       <c r="O6">
-        <v>13.67492128369115</v>
+        <v>21.31401114405286</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.62214408804672</v>
+        <v>7.611227908038814</v>
       </c>
       <c r="C7">
-        <v>5.979226878353933</v>
+        <v>4.317570214357035</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>13.26419783081011</v>
+        <v>12.38852358776245</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>15.26647399323133</v>
       </c>
       <c r="G7">
-        <v>2.095556704671855</v>
+        <v>3.633125768693229</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>12.78180990414624</v>
+        <v>20.2483717529377</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.745281300070555</v>
+        <v>7.687206784353235</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>12.78137788993124</v>
+        <v>13.14363186474681</v>
       </c>
       <c r="N7">
-        <v>12.26873280158537</v>
+        <v>18.4065231399831</v>
       </c>
       <c r="O7">
-        <v>13.64281276210648</v>
+        <v>21.28701742139987</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.58911109488175</v>
+        <v>7.968554709572069</v>
       </c>
       <c r="C8">
-        <v>6.4363613743687</v>
+        <v>4.529060539686277</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>14.4076852675469</v>
+        <v>12.66736579649584</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>16.5399640634477</v>
       </c>
       <c r="G8">
-        <v>2.090249925551207</v>
+        <v>3.631120235057661</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>12.54026586676604</v>
+        <v>20.1306698210983</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>10.50751553009256</v>
+        <v>7.913892027303334</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>13.98536250247396</v>
+        <v>13.3530902439452</v>
       </c>
       <c r="N8">
-        <v>12.02591619149301</v>
+        <v>18.33139162178571</v>
       </c>
       <c r="O8">
-        <v>13.52685308468107</v>
+        <v>21.17754814653876</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.28198523067049</v>
+        <v>8.633265719741289</v>
       </c>
       <c r="C9">
-        <v>7.250644685622931</v>
+        <v>4.910515248819764</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>16.61374087919368</v>
+        <v>13.22997969672598</v>
       </c>
       <c r="F9">
-        <v>34.4587799414611</v>
+        <v>19.00274580682531</v>
       </c>
       <c r="G9">
-        <v>2.080436562508222</v>
+        <v>3.627579027650773</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>12.14156586957197</v>
+        <v>19.92888051642592</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>11.85827315512998</v>
+        <v>8.348590763309826</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>16.10743339183721</v>
+        <v>13.77853092630695</v>
       </c>
       <c r="N9">
-        <v>11.57065101659268</v>
+        <v>18.19740601033532</v>
       </c>
       <c r="O9">
-        <v>13.40119877854918</v>
+        <v>20.99767911913446</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.40244782814479</v>
+        <v>9.094483978192073</v>
       </c>
       <c r="C10">
-        <v>7.797851982634904</v>
+        <v>5.16886182939241</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>18.23404652451554</v>
+        <v>13.6482231143898</v>
       </c>
       <c r="F10">
-        <v>37.72874519847217</v>
+        <v>20.67494806633232</v>
       </c>
       <c r="G10">
-        <v>2.073558255521032</v>
+        <v>3.625213599359153</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>11.9008402888303</v>
+        <v>19.79832611648771</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>12.76130375019827</v>
+        <v>8.658632704718439</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>17.52349577069197</v>
+        <v>14.09714194225444</v>
       </c>
       <c r="N10">
-        <v>11.24764562418011</v>
+        <v>18.10702294116326</v>
       </c>
       <c r="O10">
-        <v>13.37975581766729</v>
+        <v>20.88685574293936</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.88567310881732</v>
+        <v>9.297498834443923</v>
       </c>
       <c r="C11">
-        <v>8.035651265399277</v>
+        <v>5.281359815348089</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>18.9399649041771</v>
+        <v>13.83857806799188</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>21.3917225636224</v>
       </c>
       <c r="G11">
-        <v>2.070494074332313</v>
+        <v>3.624188291881028</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>11.80427232754399</v>
+        <v>19.74277922163877</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>13.15258877476589</v>
+        <v>8.797010234693699</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>18.13736528113833</v>
+        <v>14.24277833614572</v>
       </c>
       <c r="N11">
-        <v>11.10290162701869</v>
+        <v>18.06763751087496</v>
       </c>
       <c r="O11">
-        <v>13.38734814887737</v>
+        <v>20.84109380699267</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.06487755472303</v>
+        <v>9.373333722953268</v>
       </c>
       <c r="C12">
-        <v>8.124102138780721</v>
+        <v>5.323218379137062</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>19.20289756484956</v>
+        <v>13.91059590378359</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>21.65686569030329</v>
       </c>
       <c r="G12">
-        <v>2.069342449579318</v>
+        <v>3.623807291191609</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>11.76971414996037</v>
+        <v>19.72229805187377</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>13.29795312590518</v>
+        <v>8.848978513719345</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>18.36553072648984</v>
+        <v>14.29797644192935</v>
       </c>
       <c r="N12">
-        <v>11.04838100761537</v>
+        <v>18.05297082128205</v>
       </c>
       <c r="O12">
-        <v>13.39288119123574</v>
+        <v>20.82443590647283</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.02645045404853</v>
+        <v>9.357048640362226</v>
       </c>
       <c r="C13">
-        <v>8.10512367526421</v>
+        <v>5.314236668369573</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>19.1464635894542</v>
+        <v>13.89508970885303</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>21.60004134736742</v>
       </c>
       <c r="G13">
-        <v>2.069590095032722</v>
+        <v>3.623889024126606</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>11.77706496415309</v>
+        <v>19.72668442265932</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>13.26677109350987</v>
+        <v>8.837806191094517</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>18.31658108548201</v>
+        <v>14.28608718581526</v>
       </c>
       <c r="N13">
-        <v>11.06011047016415</v>
+        <v>18.05611855527268</v>
       </c>
       <c r="O13">
-        <v>13.39156872290542</v>
+        <v>20.82799359942724</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.90049201447004</v>
+        <v>9.303759053867164</v>
       </c>
       <c r="C14">
-        <v>8.04296018145412</v>
+        <v>5.284818516437577</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>18.96168378201084</v>
+        <v>13.84450477152222</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>21.4136618050453</v>
       </c>
       <c r="G14">
-        <v>2.070399158419963</v>
+        <v>3.624156801403152</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>11.80138802178489</v>
+        <v>19.74108313213342</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>13.16460422313966</v>
+        <v>8.801294630739671</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>18.15622224994595</v>
+        <v>14.24731883277698</v>
       </c>
       <c r="N14">
-        <v>11.09841050014223</v>
+        <v>18.0664259150808</v>
       </c>
       <c r="O14">
-        <v>13.38774914537115</v>
+        <v>20.83970988826042</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.82284705865955</v>
+        <v>9.270980087058886</v>
       </c>
       <c r="C15">
-        <v>8.004675205640382</v>
+        <v>5.266701892012538</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>18.84793306562295</v>
+        <v>13.81350922296411</v>
       </c>
       <c r="F15">
-        <v>38.96319309123409</v>
+        <v>21.29868154950795</v>
       </c>
       <c r="G15">
-        <v>2.070895849383537</v>
+        <v>3.624321767279518</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>11.8165530060428</v>
+        <v>19.74997482399189</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>13.10165861447567</v>
+        <v>8.778872541371619</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>18.05744069012825</v>
+        <v>14.2235769302419</v>
       </c>
       <c r="N15">
-        <v>11.12190749367039</v>
+        <v>18.07277169851923</v>
       </c>
       <c r="O15">
-        <v>13.38576056338702</v>
+        <v>20.84697392126693</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.37033715255712</v>
+        <v>9.081073976313725</v>
       </c>
       <c r="C16">
-        <v>7.782087335354972</v>
+        <v>5.161406984369471</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>18.18729413571198</v>
+        <v>13.63577804040474</v>
       </c>
       <c r="F16">
-        <v>37.63463543028809</v>
+        <v>20.62722412089977</v>
       </c>
       <c r="G16">
-        <v>2.073759760108405</v>
+        <v>3.625281623586128</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>11.90742408858804</v>
+        <v>19.80203361893024</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>12.73533950039202</v>
+        <v>8.649531528272565</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>17.48277348670129</v>
+        <v>14.08763387867796</v>
       </c>
       <c r="N16">
-        <v>11.25714704198183</v>
+        <v>18.10963159552224</v>
       </c>
       <c r="O16">
-        <v>13.37962265793931</v>
+        <v>20.8899401932099</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.08597168075181</v>
+        <v>8.962783238981617</v>
       </c>
       <c r="C17">
-        <v>7.642686200101262</v>
+        <v>5.095510248661035</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>17.77409794950643</v>
+        <v>13.52671263079648</v>
       </c>
       <c r="F17">
-        <v>36.8022877826839</v>
+        <v>20.20408069597325</v>
       </c>
       <c r="G17">
-        <v>2.075532854813283</v>
+        <v>3.625883434476691</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>11.96658698335499</v>
+        <v>19.83495470511188</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>12.50561463047636</v>
+        <v>8.569466842092913</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>17.12251566673078</v>
+        <v>14.00437908280663</v>
       </c>
       <c r="N17">
-        <v>11.34065670235607</v>
+        <v>18.13268633254065</v>
       </c>
       <c r="O17">
-        <v>13.38041616687008</v>
+        <v>20.91749169837002</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.91991808965876</v>
+        <v>8.894109267074239</v>
       </c>
       <c r="C18">
-        <v>7.561458473674057</v>
+        <v>5.057136171225134</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>17.5334983658631</v>
+        <v>13.46399447655786</v>
       </c>
       <c r="F18">
-        <v>36.31710943239618</v>
+        <v>19.95656407809801</v>
       </c>
       <c r="G18">
-        <v>2.076558829129212</v>
+        <v>3.626234357932931</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>12.00182413721051</v>
+        <v>19.85425172048357</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>12.37164635624642</v>
+        <v>8.523167916054323</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>16.91244825999506</v>
+        <v>13.95656192891812</v>
       </c>
       <c r="N18">
-        <v>11.38889718878367</v>
+        <v>18.14610973437391</v>
       </c>
       <c r="O18">
-        <v>13.38249545628395</v>
+        <v>20.93377635155587</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.863266136772</v>
+        <v>8.870750279150991</v>
       </c>
       <c r="C19">
-        <v>7.533776223497858</v>
+        <v>5.044062933396289</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>17.45152768118915</v>
+        <v>13.44276394199352</v>
       </c>
       <c r="F19">
-        <v>36.15172494150058</v>
+        <v>19.87204792380568</v>
       </c>
       <c r="G19">
-        <v>2.076907278228541</v>
+        <v>3.626353996240438</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>12.01395799666142</v>
+        <v>19.86084745854642</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>12.32597172984768</v>
+        <v>8.507450895139421</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>16.84083056734202</v>
+        <v>13.94038526978751</v>
       </c>
       <c r="N19">
-        <v>11.40526702850117</v>
+        <v>18.15068268398909</v>
       </c>
       <c r="O19">
-        <v>13.38347323604405</v>
+        <v>20.93936517367581</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.11650083080294</v>
+        <v>8.975441838990879</v>
       </c>
       <c r="C20">
-        <v>7.65763414529792</v>
+        <v>5.102574069642547</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>17.81838699224415</v>
+        <v>13.53832202640121</v>
       </c>
       <c r="F20">
-        <v>36.89155697731404</v>
+        <v>20.24955283636154</v>
       </c>
       <c r="G20">
-        <v>2.075343474933617</v>
+        <v>3.625818876455775</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>11.96016290351451</v>
+        <v>19.83141276266693</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>12.53025935098978</v>
+        <v>8.578015884457697</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>17.1611609336892</v>
+        <v>14.01323495469956</v>
       </c>
       <c r="N20">
-        <v>11.33174560914159</v>
+        <v>18.13021526206347</v>
       </c>
       <c r="O20">
-        <v>13.38016255300717</v>
+        <v>20.91451347164319</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.93759149626445</v>
+        <v>9.31944026925769</v>
       </c>
       <c r="C21">
-        <v>8.061262451806448</v>
+        <v>5.293479619035115</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>19.01607621953169</v>
+        <v>13.85936518382207</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>21.46857628470577</v>
       </c>
       <c r="G21">
-        <v>2.070161285392035</v>
+        <v>3.624077951942392</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>11.79418794658016</v>
+        <v>19.73683886235736</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>13.19468926188813</v>
+        <v>8.812031069916163</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>18.20343951163893</v>
+        <v>14.25870512141089</v>
       </c>
       <c r="N21">
-        <v>11.08715316296149</v>
+        <v>18.06339167931378</v>
       </c>
       <c r="O21">
-        <v>13.38879760271528</v>
+        <v>20.83625029817295</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.45218899601984</v>
+        <v>9.53816220854236</v>
       </c>
       <c r="C22">
-        <v>8.315743633810616</v>
+        <v>5.413915441140591</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>19.77333869028651</v>
+        <v>14.06876961769047</v>
       </c>
       <c r="F22">
-        <v>40.81974568026789</v>
+        <v>22.22866616901552</v>
       </c>
       <c r="G22">
-        <v>2.066824909332915</v>
+        <v>3.622982463754532</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>11.69750791277162</v>
+        <v>19.67825434044349</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>13.6125766523539</v>
+        <v>8.962433375804324</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>18.85963664837366</v>
+        <v>14.41939508712673</v>
       </c>
       <c r="N22">
-        <v>10.92898047171321</v>
+        <v>18.02116199643291</v>
       </c>
       <c r="O22">
-        <v>13.4100102746966</v>
+        <v>20.78901376293333</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.17954527461598</v>
+        <v>9.422003970884047</v>
       </c>
       <c r="C23">
-        <v>8.180772530347451</v>
+        <v>5.35003867304509</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>19.37147135167396</v>
+        <v>13.95706982989551</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>21.82633154458858</v>
       </c>
       <c r="G23">
-        <v>2.068601186306335</v>
+        <v>3.62356328685494</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>11.74797608029974</v>
+        <v>19.70922669908903</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>13.39103755013736</v>
+        <v>8.882408684313935</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>18.51167581906075</v>
+        <v>14.33362475182234</v>
       </c>
       <c r="N23">
-        <v>11.01325470568195</v>
+        <v>18.04356906094873</v>
       </c>
       <c r="O23">
-        <v>13.39720985725702</v>
+        <v>20.81386604244074</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.10270660295919</v>
+        <v>8.969720958601689</v>
       </c>
       <c r="C24">
-        <v>7.650879556246018</v>
+        <v>5.099382038354141</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>17.79837341592465</v>
+        <v>13.53307345931894</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>20.22900810905287</v>
       </c>
       <c r="G24">
-        <v>2.075429072978972</v>
+        <v>3.625848047763973</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>11.96306342986598</v>
+        <v>19.83301292159118</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>12.51912337946749</v>
+        <v>8.574151695448059</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>17.14369860307058</v>
+        <v>14.00923106422871</v>
       </c>
       <c r="N24">
-        <v>11.33577359717283</v>
+        <v>18.13133190673453</v>
       </c>
       <c r="O24">
-        <v>13.38027216865109</v>
+        <v>20.91585854217891</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.84574269602893</v>
+        <v>8.457871838811615</v>
       </c>
       <c r="C25">
-        <v>7.039283415403768</v>
+        <v>4.811065505900966</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>15.98881208419011</v>
+        <v>13.07658009095259</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>18.34778573295695</v>
       </c>
       <c r="G25">
-        <v>2.083030835173669</v>
+        <v>3.628495345511567</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>12.24076541951341</v>
+        <v>19.98036216121421</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>11.50847972604314</v>
+        <v>8.232402515009033</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>15.55869388243451</v>
+        <v>13.66216564262268</v>
       </c>
       <c r="N25">
-        <v>11.69170177583863</v>
+        <v>18.23223214622903</v>
       </c>
       <c r="O25">
-        <v>13.42339827218275</v>
+        <v>21.04260131724284</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_248/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_248/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>8.063151185903664</v>
+        <v>11.83734020367502</v>
       </c>
       <c r="C2">
-        <v>4.584180610710706</v>
+        <v>6.554716165704138</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>12.74416604407081</v>
+        <v>14.7081647344195</v>
       </c>
       <c r="F2">
-        <v>16.86991607391245</v>
+        <v>30.27884324296195</v>
       </c>
       <c r="G2">
-        <v>3.630603431827059</v>
+        <v>2.088853259532351</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>20.10074251947608</v>
+        <v>12.4796731853125</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>7.974778230901852</v>
+        <v>10.7043856268084</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>13.41094510034195</v>
+        <v>14.29533221307593</v>
       </c>
       <c r="N2">
-        <v>18.31194102333822</v>
+        <v>11.96158405792769</v>
       </c>
       <c r="O2">
-        <v>21.15023834395223</v>
+        <v>13.50199847476204</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.786216191088958</v>
+        <v>11.10197855973026</v>
       </c>
       <c r="C3">
-        <v>4.421841791944982</v>
+        <v>6.205259072981604</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>12.52275609309331</v>
+        <v>13.82606247959206</v>
       </c>
       <c r="F3">
-        <v>15.89584955866815</v>
+        <v>28.1630198432675</v>
       </c>
       <c r="G3">
-        <v>3.632132058032816</v>
+        <v>2.092949701834007</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>20.18974032786772</v>
+        <v>12.66092716296654</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>7.797541338779874</v>
+        <v>10.12254547171446</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.24434619055926</v>
+        <v>13.37815652400895</v>
       </c>
       <c r="N3">
-        <v>18.36936698444557</v>
+        <v>12.14978052046817</v>
       </c>
       <c r="O3">
-        <v>21.23208012869285</v>
+        <v>13.58156547694119</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.612192862166771</v>
+        <v>10.62482718083117</v>
       </c>
       <c r="C4">
-        <v>4.318149319971216</v>
+        <v>5.980486095918762</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>12.3892508566963</v>
+        <v>13.26730762121434</v>
       </c>
       <c r="F4">
-        <v>15.26997757108489</v>
+        <v>26.79314218379246</v>
       </c>
       <c r="G4">
-        <v>3.633120219987842</v>
+        <v>2.095542269435866</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>20.24804265683637</v>
+        <v>12.78112885976775</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>7.687811476672208</v>
+        <v>9.747385120776093</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>13.14417694576039</v>
+        <v>12.78471140874294</v>
       </c>
       <c r="N4">
-        <v>18.40631605653857</v>
+        <v>12.26807601908408</v>
       </c>
       <c r="O4">
-        <v>21.28670683551182</v>
+        <v>13.64245070658394</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.540386589786907</v>
+        <v>10.42394744948216</v>
       </c>
       <c r="C5">
-        <v>4.274920983179022</v>
+        <v>5.886361900199384</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12.33554092165054</v>
+        <v>13.03551324680304</v>
       </c>
       <c r="F5">
-        <v>15.008197319934</v>
+        <v>26.2169480385347</v>
       </c>
       <c r="G5">
-        <v>3.633535409427155</v>
+        <v>2.096618636385013</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>20.27272088643588</v>
+        <v>12.83226635086011</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>7.642930967971266</v>
+        <v>9.590062014870172</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>13.10393904122187</v>
+        <v>12.535239595407</v>
       </c>
       <c r="N5">
-        <v>18.4217991185508</v>
+        <v>12.31698999527704</v>
       </c>
       <c r="O5">
-        <v>21.31006607332367</v>
+        <v>13.67015106390953</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.528412891145766</v>
+        <v>10.39020325512421</v>
       </c>
       <c r="C6">
-        <v>4.267685360765378</v>
+        <v>5.870581346207589</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12.32666671298655</v>
+        <v>12.99678376479221</v>
       </c>
       <c r="F6">
-        <v>14.96433081551589</v>
+        <v>26.12018204701072</v>
       </c>
       <c r="G6">
-        <v>3.633605107740895</v>
+        <v>2.096798578856003</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>20.27687422432457</v>
+        <v>12.84088541453377</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>7.635470532342256</v>
+        <v>9.563672444850761</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>13.09729409201086</v>
+        <v>12.49335329369235</v>
       </c>
       <c r="N6">
-        <v>18.42439583560536</v>
+        <v>12.32515537692268</v>
       </c>
       <c r="O6">
-        <v>21.31401114405286</v>
+        <v>13.67492128369106</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.611227908038814</v>
+        <v>10.6221440880467</v>
       </c>
       <c r="C7">
-        <v>4.317570214357035</v>
+        <v>5.979226878353933</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>12.38852358776245</v>
+        <v>13.26419783081012</v>
       </c>
       <c r="F7">
-        <v>15.26647399323133</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>3.633125768693229</v>
+        <v>2.095556704671584</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>20.2483717529377</v>
+        <v>12.78180990414618</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>7.687206784353235</v>
+        <v>9.7452813000706</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>13.14363186474681</v>
+        <v>12.78137788993122</v>
       </c>
       <c r="N7">
-        <v>18.4065231399831</v>
+        <v>12.2687328015853</v>
       </c>
       <c r="O7">
-        <v>21.28701742139987</v>
+        <v>13.64281276210637</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.968554709572069</v>
+        <v>11.58911109488176</v>
       </c>
       <c r="C8">
-        <v>4.529060539686277</v>
+        <v>6.436361374368671</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>12.66736579649584</v>
+        <v>14.40768526754689</v>
       </c>
       <c r="F8">
-        <v>16.5399640634477</v>
+        <v>29.56389055882491</v>
       </c>
       <c r="G8">
-        <v>3.631120235057661</v>
+        <v>2.090249925551207</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>20.1306698210983</v>
+        <v>12.54026586676602</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>7.913892027303334</v>
+        <v>10.50751553009254</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>13.3530902439452</v>
+        <v>13.98536250247396</v>
       </c>
       <c r="N8">
-        <v>18.33139162178571</v>
+        <v>12.02591619149297</v>
       </c>
       <c r="O8">
-        <v>21.17754814653876</v>
+        <v>13.52685308468103</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.633265719741289</v>
+        <v>13.28198523067055</v>
       </c>
       <c r="C9">
-        <v>4.910515248819764</v>
+        <v>7.250644685622827</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>13.22997969672598</v>
+        <v>16.6137408791937</v>
       </c>
       <c r="F9">
-        <v>19.00274580682531</v>
+        <v>34.45877994146107</v>
       </c>
       <c r="G9">
-        <v>3.627579027650773</v>
+        <v>2.080436562508222</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>19.92888051642592</v>
+        <v>12.14156586957193</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>8.348590763309826</v>
+        <v>11.85827315513</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>13.77853092630695</v>
+        <v>16.10743339183723</v>
       </c>
       <c r="N9">
-        <v>18.19740601033532</v>
+        <v>11.57065101659267</v>
       </c>
       <c r="O9">
-        <v>20.99767911913446</v>
+        <v>13.40119877854916</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9.094483978192073</v>
+        <v>14.40244782814472</v>
       </c>
       <c r="C10">
-        <v>5.16886182939241</v>
+        <v>7.797851982635005</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>13.6482231143898</v>
+        <v>18.23404652451552</v>
       </c>
       <c r="F10">
-        <v>20.67494806633232</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>3.625213599359153</v>
+        <v>2.073558255521033</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>19.79832611648771</v>
+        <v>11.90084028883035</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>8.658632704718439</v>
+        <v>12.76130375019826</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>14.09714194225444</v>
+        <v>17.52349577069195</v>
       </c>
       <c r="N10">
-        <v>18.10702294116326</v>
+        <v>11.24764562418011</v>
       </c>
       <c r="O10">
-        <v>20.88685574293936</v>
+        <v>13.37975581766727</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.297498834443923</v>
+        <v>14.88567310881733</v>
       </c>
       <c r="C11">
-        <v>5.281359815348089</v>
+        <v>8.03565126539948</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>13.83857806799188</v>
+        <v>18.93996490417713</v>
       </c>
       <c r="F11">
-        <v>21.3917225636224</v>
+        <v>39.1480572223286</v>
       </c>
       <c r="G11">
-        <v>3.624188291881028</v>
+        <v>2.070494074332313</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>19.74277922163877</v>
+        <v>11.80427232754392</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>8.797010234693699</v>
+        <v>13.15258877476594</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>14.24277833614572</v>
+        <v>18.13736528113836</v>
       </c>
       <c r="N11">
-        <v>18.06763751087496</v>
+        <v>11.10290162701858</v>
       </c>
       <c r="O11">
-        <v>20.84109380699267</v>
+        <v>13.38734814887723</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.373333722953268</v>
+        <v>15.06487755472296</v>
       </c>
       <c r="C12">
-        <v>5.323218379137062</v>
+        <v>8.124102138780751</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>13.91059590378359</v>
+        <v>19.20289756484957</v>
       </c>
       <c r="F12">
-        <v>21.65686569030329</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>3.623807291191609</v>
+        <v>2.069342449579318</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>19.72229805187377</v>
+        <v>11.76971414996054</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>8.848978513719345</v>
+        <v>13.29795312590517</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>14.29797644192935</v>
+        <v>18.36553072648983</v>
       </c>
       <c r="N12">
-        <v>18.05297082128205</v>
+        <v>11.04838100761543</v>
       </c>
       <c r="O12">
-        <v>20.82443590647283</v>
+        <v>13.39288119123581</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.357048640362226</v>
+        <v>15.02645045404853</v>
       </c>
       <c r="C13">
-        <v>5.314236668369573</v>
+        <v>8.105123675264124</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>13.89508970885303</v>
+        <v>19.14646358945425</v>
       </c>
       <c r="F13">
-        <v>21.60004134736742</v>
+        <v>39.56266403258223</v>
       </c>
       <c r="G13">
-        <v>3.623889024126606</v>
+        <v>2.069590095032586</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>19.72668442265932</v>
+        <v>11.77706496415315</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>8.837806191094517</v>
+        <v>13.26677109350985</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>14.28608718581526</v>
+        <v>18.31658108548202</v>
       </c>
       <c r="N13">
-        <v>18.05611855527268</v>
+        <v>11.06011047016422</v>
       </c>
       <c r="O13">
-        <v>20.82799359942724</v>
+        <v>13.39156872290549</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.303759053867164</v>
+        <v>14.90049201447011</v>
       </c>
       <c r="C14">
-        <v>5.284818516437577</v>
+        <v>8.042960181454175</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>13.84450477152222</v>
+        <v>18.96168378201086</v>
       </c>
       <c r="F14">
-        <v>21.4136618050453</v>
+        <v>39.19167637503946</v>
       </c>
       <c r="G14">
-        <v>3.624156801403152</v>
+        <v>2.070399158419828</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>19.74108313213342</v>
+        <v>11.80138802178482</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>8.801294630739671</v>
+        <v>13.16460422313972</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>14.24731883277698</v>
+        <v>18.15622224994599</v>
       </c>
       <c r="N14">
-        <v>18.0664259150808</v>
+        <v>11.09841050014223</v>
       </c>
       <c r="O14">
-        <v>20.83970988826042</v>
+        <v>13.38774914537106</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9.270980087058886</v>
+        <v>14.82284705865952</v>
       </c>
       <c r="C15">
-        <v>5.266701892012538</v>
+        <v>8.004675205640382</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>13.81350922296411</v>
+        <v>18.84793306562291</v>
       </c>
       <c r="F15">
-        <v>21.29868154950795</v>
+        <v>38.96319309123407</v>
       </c>
       <c r="G15">
-        <v>3.624321767279518</v>
+        <v>2.070895849383538</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>19.74997482399189</v>
+        <v>11.81655300604285</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>8.778872541371619</v>
+        <v>13.10165861447564</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>14.2235769302419</v>
+        <v>18.05744069012821</v>
       </c>
       <c r="N15">
-        <v>18.07277169851923</v>
+        <v>11.12190749367036</v>
       </c>
       <c r="O15">
-        <v>20.84697392126693</v>
+        <v>13.38576056338705</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>9.081073976313725</v>
+        <v>14.37033715255708</v>
       </c>
       <c r="C16">
-        <v>5.161406984369471</v>
+        <v>7.78208733535503</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>13.63577804040474</v>
+        <v>18.18729413571197</v>
       </c>
       <c r="F16">
-        <v>20.62722412089977</v>
+        <v>37.63463543028808</v>
       </c>
       <c r="G16">
-        <v>3.625281623586128</v>
+        <v>2.073759760108406</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>19.80203361893024</v>
+        <v>11.90742408858803</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>8.649531528272565</v>
+        <v>12.73533950039201</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>14.08763387867796</v>
+        <v>17.48277348670129</v>
       </c>
       <c r="N16">
-        <v>18.10963159552224</v>
+        <v>11.25714704198183</v>
       </c>
       <c r="O16">
-        <v>20.8899401932099</v>
+        <v>13.37962265793929</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.962783238981617</v>
+        <v>14.08597168075179</v>
       </c>
       <c r="C17">
-        <v>5.095510248661035</v>
+        <v>7.642686200101334</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>13.52671263079648</v>
+        <v>17.77409794950646</v>
       </c>
       <c r="F17">
-        <v>20.20408069597325</v>
+        <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>3.625883434476691</v>
+        <v>2.075532854813281</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>19.83495470511188</v>
+        <v>11.96658698335506</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>8.569466842092913</v>
+        <v>12.50561463047637</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>14.00437908280663</v>
+        <v>17.1225156667308</v>
       </c>
       <c r="N17">
-        <v>18.13268633254065</v>
+        <v>11.34065670235613</v>
       </c>
       <c r="O17">
-        <v>20.91749169837002</v>
+        <v>13.38041616687015</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.894109267074239</v>
+        <v>13.91991808965874</v>
       </c>
       <c r="C18">
-        <v>5.057136171225134</v>
+        <v>7.561458473674114</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>13.46399447655786</v>
+        <v>17.53349836586306</v>
       </c>
       <c r="F18">
-        <v>19.95656407809801</v>
+        <v>36.31710943239619</v>
       </c>
       <c r="G18">
-        <v>3.626234357932931</v>
+        <v>2.076558829129481</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>19.85425172048357</v>
+        <v>12.00182413721062</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>8.523167916054323</v>
+        <v>12.37164635624641</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>13.95656192891812</v>
+        <v>16.91244825999503</v>
       </c>
       <c r="N18">
-        <v>18.14610973437391</v>
+        <v>11.38889718878374</v>
       </c>
       <c r="O18">
-        <v>20.93377635155587</v>
+        <v>13.38249545628407</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.870750279150991</v>
+        <v>13.86326613677199</v>
       </c>
       <c r="C19">
-        <v>5.044062933396289</v>
+        <v>7.533776223498005</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>13.44276394199352</v>
+        <v>17.45152768118914</v>
       </c>
       <c r="F19">
-        <v>19.87204792380568</v>
+        <v>36.15172494150059</v>
       </c>
       <c r="G19">
-        <v>3.626353996240438</v>
+        <v>2.076907278228808</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>19.86084745854642</v>
+        <v>12.01395799666142</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>8.507450895139421</v>
+        <v>12.32597172984771</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>13.94038526978751</v>
+        <v>16.84083056734202</v>
       </c>
       <c r="N19">
-        <v>18.15068268398909</v>
+        <v>11.4052670285011</v>
       </c>
       <c r="O19">
-        <v>20.93936517367581</v>
+        <v>13.383473236044</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.975441838990879</v>
+        <v>14.11650083080299</v>
       </c>
       <c r="C20">
-        <v>5.102574069642547</v>
+        <v>7.657634145298009</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>13.53832202640121</v>
+        <v>17.81838699224413</v>
       </c>
       <c r="F20">
-        <v>20.24955283636154</v>
+        <v>36.89155697731402</v>
       </c>
       <c r="G20">
-        <v>3.625818876455775</v>
+        <v>2.075343474933618</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>19.83141276266693</v>
+        <v>11.96016290351444</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>8.578015884457697</v>
+        <v>12.53025935098986</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>14.01323495469956</v>
+        <v>17.16116093368925</v>
       </c>
       <c r="N20">
-        <v>18.13021526206347</v>
+        <v>11.33174560914156</v>
       </c>
       <c r="O20">
-        <v>20.91451347164319</v>
+        <v>13.38016255300703</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.31944026925769</v>
+        <v>14.93759149626455</v>
       </c>
       <c r="C21">
-        <v>5.293479619035115</v>
+        <v>8.061262451806334</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>13.85936518382207</v>
+        <v>19.01607621953174</v>
       </c>
       <c r="F21">
-        <v>21.46857628470577</v>
+        <v>39.30090300329761</v>
       </c>
       <c r="G21">
-        <v>3.624077951942392</v>
+        <v>2.070161285391768</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>19.73683886235736</v>
+        <v>11.79418794658005</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>8.812031069916163</v>
+        <v>13.19468926188814</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>14.25870512141089</v>
+        <v>18.20343951163898</v>
       </c>
       <c r="N21">
-        <v>18.06339167931378</v>
+        <v>11.08715316296146</v>
       </c>
       <c r="O21">
-        <v>20.83625029817295</v>
+        <v>13.38879760271523</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.53816220854236</v>
+        <v>15.4521889960198</v>
       </c>
       <c r="C22">
-        <v>5.413915441140591</v>
+        <v>8.315743633810731</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>14.06876961769047</v>
+        <v>19.77333869028646</v>
       </c>
       <c r="F22">
-        <v>22.22866616901552</v>
+        <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>3.622982463754532</v>
+        <v>2.066824909333182</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>19.67825434044349</v>
+        <v>11.69750791277175</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>8.962433375804324</v>
+        <v>13.61257665235386</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>14.41939508712673</v>
+        <v>18.85963664837361</v>
       </c>
       <c r="N22">
-        <v>18.02116199643291</v>
+        <v>10.92898047171325</v>
       </c>
       <c r="O22">
-        <v>20.78901376293333</v>
+        <v>13.41001027469666</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.422003970884047</v>
+        <v>15.17954527461604</v>
       </c>
       <c r="C23">
-        <v>5.35003867304509</v>
+        <v>8.180772530347523</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>13.95706982989551</v>
+        <v>19.37147135167393</v>
       </c>
       <c r="F23">
-        <v>21.82633154458858</v>
+        <v>40.01414225038427</v>
       </c>
       <c r="G23">
-        <v>3.62356328685494</v>
+        <v>2.068601186306202</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>19.70922669908903</v>
+        <v>11.74797608029968</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>8.882408684313935</v>
+        <v>13.39103755013743</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>14.33362475182234</v>
+        <v>18.51167581906078</v>
       </c>
       <c r="N23">
-        <v>18.04356906094873</v>
+        <v>11.01325470568184</v>
       </c>
       <c r="O23">
-        <v>20.81386604244074</v>
+        <v>13.39720985725693</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.969720958601689</v>
+        <v>14.10270660295927</v>
       </c>
       <c r="C24">
-        <v>5.099382038354141</v>
+        <v>7.650879556245975</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>13.53307345931894</v>
+        <v>17.79837341592464</v>
       </c>
       <c r="F24">
-        <v>20.22900810905287</v>
+        <v>36.8512191057544</v>
       </c>
       <c r="G24">
-        <v>3.625848047763973</v>
+        <v>2.075429072978972</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>19.83301292159118</v>
+        <v>11.96306342986594</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>8.574151695448059</v>
+        <v>12.5191233794675</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>14.00923106422871</v>
+        <v>17.14369860307059</v>
       </c>
       <c r="N24">
-        <v>18.13133190673453</v>
+        <v>11.33577359717283</v>
       </c>
       <c r="O24">
-        <v>20.91585854217891</v>
+        <v>13.38027216865111</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>8.457871838811615</v>
+        <v>12.84574269602893</v>
       </c>
       <c r="C25">
-        <v>4.811065505900966</v>
+        <v>7.039283415403741</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>13.07658009095259</v>
+        <v>15.98881208419011</v>
       </c>
       <c r="F25">
-        <v>18.34778573295695</v>
+        <v>33.19272459126714</v>
       </c>
       <c r="G25">
-        <v>3.628495345511567</v>
+        <v>2.083030835173534</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>19.98036216121421</v>
+        <v>12.24076541951338</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>8.232402515009033</v>
+        <v>11.50847972604314</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>13.66216564262268</v>
+        <v>15.5586938824345</v>
       </c>
       <c r="N25">
-        <v>18.23223214622903</v>
+        <v>11.6917017758386</v>
       </c>
       <c r="O25">
-        <v>21.04260131724284</v>
+        <v>13.42339827218272</v>
       </c>
     </row>
   </sheetData>
